--- a/rozny rozmiar masek.xlsx
+++ b/rozny rozmiar masek.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>160X120</t>
   </si>
@@ -54,19 +54,34 @@
     <t>MeanFilter - uśredniający</t>
   </si>
   <si>
-    <t>3x3</t>
+    <t>3x3 GPU</t>
   </si>
   <si>
-    <t>5x5</t>
+    <t>5x5 GPU</t>
   </si>
   <si>
-    <t>7x7</t>
+    <t>7x7 GPU</t>
   </si>
   <si>
-    <t>9x9</t>
+    <t>9x9 GPU</t>
   </si>
   <si>
-    <t>11x11</t>
+    <t>11x11 GPU</t>
+  </si>
+  <si>
+    <t>3x3 CPU</t>
+  </si>
+  <si>
+    <t>5x5 CPU</t>
+  </si>
+  <si>
+    <t>7x7 CPU</t>
+  </si>
+  <si>
+    <t>9x9 CPU</t>
+  </si>
+  <si>
+    <t>11x11 CPU</t>
   </si>
 </sst>
 </file>
@@ -156,8 +171,8 @@
           <c:yMode val="edge"/>
           <c:x val="7.254818550185696E-2"/>
           <c:y val="2.7559590765440036E-2"/>
-          <c:w val="0.64297944867803936"/>
-          <c:h val="0.75595023836306219"/>
+          <c:w val="0.64297944867803969"/>
+          <c:h val="0.75595023836306241"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -171,7 +186,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3x3</c:v>
+                  <c:v>3x3 GPU</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -269,7 +284,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5x5</c:v>
+                  <c:v>5x5 GPU</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -326,7 +341,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>7x7</c:v>
+                  <c:v>7x7 GPU</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -383,7 +398,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>9x9</c:v>
+                  <c:v>9x9 GPU</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -440,7 +455,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>11x11</c:v>
+                  <c:v>11x11 GPU</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -489,24 +504,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="74731904"/>
-        <c:axId val="74733440"/>
+        <c:axId val="94128000"/>
+        <c:axId val="94129536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="74731904"/>
+        <c:axId val="94128000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74733440"/>
+        <c:crossAx val="94129536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74733440"/>
+        <c:axId val="94129536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -514,7 +529,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74731904"/>
+        <c:crossAx val="94128000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -527,7 +542,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -856,7 +871,7 @@
   <dimension ref="A3:AT70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="M2" sqref="M1:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -865,9 +880,11 @@
     <col min="3" max="3" width="15.140625" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="8" max="9" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
     <col min="11" max="11" width="14.7109375" customWidth="1"/>
-    <col min="12" max="12" width="33.5703125" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
     <col min="13" max="13" width="25" customWidth="1"/>
     <col min="14" max="14" width="26.7109375" customWidth="1"/>
     <col min="15" max="15" width="20" customWidth="1"/>
@@ -991,10 +1008,21 @@
       <c r="G6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
+      <c r="H6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="R6" s="4"/>
@@ -1046,10 +1074,13 @@
       <c r="G7" s="2">
         <v>0.74</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
+      <c r="H7" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="R7" s="4"/>
@@ -1101,10 +1132,13 @@
       <c r="G8" s="2">
         <v>3.27</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
+      <c r="H8" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="R8" s="4"/>
@@ -1156,10 +1190,13 @@
       <c r="G9" s="2">
         <v>4.5999999999999996</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
+      <c r="H9" s="2">
+        <v>2.36</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="R9" s="4"/>
@@ -1211,10 +1248,13 @@
       <c r="G10" s="2">
         <v>6.28</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
+      <c r="H10" s="2">
+        <v>3.79</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="R10" s="4"/>
@@ -1266,10 +1306,13 @@
       <c r="G11" s="2">
         <v>9.44</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
+      <c r="H11" s="2">
+        <v>5.9</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="R11" s="4"/>
@@ -1321,10 +1364,13 @@
       <c r="G12" s="2">
         <v>14.8</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
+      <c r="H12" s="2">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="R12" s="4"/>
@@ -1376,10 +1422,13 @@
       <c r="G13" s="2">
         <v>19.41</v>
       </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
+      <c r="H13" s="2">
+        <v>12.35</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="R13" s="4"/>
@@ -1431,10 +1480,13 @@
       <c r="G14" s="2">
         <v>24.17</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
+      <c r="H14" s="2">
+        <v>15.62</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="R14" s="4"/>
@@ -1486,10 +1538,13 @@
       <c r="G15" s="2">
         <v>30.14</v>
       </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
+      <c r="H15" s="2">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="R15" s="4"/>
@@ -1541,10 +1596,13 @@
       <c r="G16" s="2">
         <v>37.67</v>
       </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
+      <c r="H16" s="2">
+        <v>23.43</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="R16" s="4"/>
@@ -1596,10 +1654,13 @@
       <c r="G17" s="2">
         <v>47.49</v>
       </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
+      <c r="H17" s="2">
+        <v>28.38</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="R17" s="4"/>

--- a/rozny rozmiar masek.xlsx
+++ b/rozny rozmiar masek.xlsx
@@ -171,8 +171,8 @@
           <c:yMode val="edge"/>
           <c:x val="7.254818550185696E-2"/>
           <c:y val="2.7559590765440036E-2"/>
-          <c:w val="0.64297944867803969"/>
-          <c:h val="0.75595023836306241"/>
+          <c:w val="0.64297944867803991"/>
+          <c:h val="0.75595023836306263"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -504,24 +504,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="94128000"/>
-        <c:axId val="94129536"/>
+        <c:axId val="56571776"/>
+        <c:axId val="56573312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="94128000"/>
+        <c:axId val="56571776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94129536"/>
+        <c:crossAx val="56573312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94129536"/>
+        <c:axId val="56573312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -529,7 +529,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94128000"/>
+        <c:crossAx val="56571776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -542,7 +542,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -870,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:AT70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M1:M2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1077,10 +1077,18 @@
       <c r="H7" s="2">
         <v>0.24</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
+      <c r="I7" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1.64</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1.52</v>
+      </c>
+      <c r="L7" s="2">
+        <v>2.7</v>
+      </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="R7" s="4"/>
@@ -1135,10 +1143,18 @@
       <c r="H8" s="2">
         <v>0.97</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+      <c r="I8" s="2">
+        <v>2.12</v>
+      </c>
+      <c r="J8" s="2">
+        <v>3.81</v>
+      </c>
+      <c r="K8" s="2">
+        <v>6.08</v>
+      </c>
+      <c r="L8" s="2">
+        <v>9.25</v>
+      </c>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="R8" s="4"/>
@@ -1193,10 +1209,18 @@
       <c r="H9" s="2">
         <v>2.36</v>
       </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
+      <c r="I9" s="2">
+        <v>5.13</v>
+      </c>
+      <c r="J9" s="2">
+        <v>8.6</v>
+      </c>
+      <c r="K9" s="2">
+        <v>13.75</v>
+      </c>
+      <c r="L9" s="2">
+        <v>20.53</v>
+      </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="R9" s="4"/>
@@ -1251,10 +1275,18 @@
       <c r="H10" s="2">
         <v>3.79</v>
       </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
+      <c r="I10" s="2">
+        <v>7.85</v>
+      </c>
+      <c r="J10" s="2">
+        <v>15.18</v>
+      </c>
+      <c r="K10" s="2">
+        <v>24.36</v>
+      </c>
+      <c r="L10" s="2">
+        <v>36.299999999999997</v>
+      </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="R10" s="4"/>
@@ -1309,10 +1341,18 @@
       <c r="H11" s="2">
         <v>5.9</v>
       </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
+      <c r="I11" s="2">
+        <v>12.18</v>
+      </c>
+      <c r="J11" s="2">
+        <v>23.84</v>
+      </c>
+      <c r="K11" s="2">
+        <v>37.159999999999997</v>
+      </c>
+      <c r="L11" s="2">
+        <v>56.83</v>
+      </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="R11" s="4"/>
@@ -1367,10 +1407,18 @@
       <c r="H12" s="2">
         <v>8.8000000000000007</v>
       </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
+      <c r="I12" s="2">
+        <v>17.829999999999998</v>
+      </c>
+      <c r="J12" s="2">
+        <v>34.07</v>
+      </c>
+      <c r="K12" s="2">
+        <v>54.14</v>
+      </c>
+      <c r="L12" s="2">
+        <v>81.94</v>
+      </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="R12" s="4"/>
@@ -1425,10 +1473,18 @@
       <c r="H13" s="2">
         <v>12.35</v>
       </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
+      <c r="I13" s="2">
+        <v>24</v>
+      </c>
+      <c r="J13" s="2">
+        <v>46.6</v>
+      </c>
+      <c r="K13" s="2">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="L13" s="2">
+        <v>109.79</v>
+      </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="R13" s="4"/>
@@ -1483,10 +1539,18 @@
       <c r="H14" s="2">
         <v>15.62</v>
       </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
+      <c r="I14" s="2">
+        <v>31.25</v>
+      </c>
+      <c r="J14" s="2">
+        <v>60.5</v>
+      </c>
+      <c r="K14" s="2">
+        <v>96.22</v>
+      </c>
+      <c r="L14" s="2">
+        <v>142.63</v>
+      </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="R14" s="4"/>
@@ -1541,10 +1605,18 @@
       <c r="H15" s="2">
         <v>18.899999999999999</v>
       </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
+      <c r="I15" s="2">
+        <v>39.21</v>
+      </c>
+      <c r="J15" s="2">
+        <v>76.3</v>
+      </c>
+      <c r="K15" s="2">
+        <v>121.9</v>
+      </c>
+      <c r="L15" s="2">
+        <v>182.47</v>
+      </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="R15" s="4"/>
@@ -1599,10 +1671,18 @@
       <c r="H16" s="2">
         <v>23.43</v>
       </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
+      <c r="I16" s="2">
+        <v>48.8</v>
+      </c>
+      <c r="J16" s="2">
+        <v>92.8</v>
+      </c>
+      <c r="K16" s="2">
+        <v>151.53</v>
+      </c>
+      <c r="L16" s="2">
+        <v>224.9</v>
+      </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="R16" s="4"/>
@@ -1657,10 +1737,18 @@
       <c r="H17" s="2">
         <v>28.38</v>
       </c>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
+      <c r="I17" s="2">
+        <v>59.9</v>
+      </c>
+      <c r="J17" s="2">
+        <v>115.6</v>
+      </c>
+      <c r="K17" s="2">
+        <v>181.7</v>
+      </c>
+      <c r="L17" s="2">
+        <v>278</v>
+      </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="R17" s="4"/>
